--- a/medicine/Psychotrope/Stabulation_(vinification)/Stabulation_(vinification).xlsx
+++ b/medicine/Psychotrope/Stabulation_(vinification)/Stabulation_(vinification).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stabulation est une technique de vinification.
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La stabulation à froid permet, après une macération pelliculaire ou non, d’accroître l'expression des arômes par un contact jus-bourbes assez long.
 </t>
@@ -542,11 +556,13 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pratique se déroule avec une vendange mûre, saine et éraflée. Elle se réalise par l'intermédiaire d'un groupe de froid ou d'une cuve en inox thermorégulée.
-La récupération du moût peut se situer vers les 12° à 14°[1], après enzymage et sulfitage.
-La stabulation dure de 4 à 6 jours, à une température d'environ 6°, en cuve[1].
+La récupération du moût peut se situer vers les 12° à 14°, après enzymage et sulfitage.
+La stabulation dure de 4 à 6 jours, à une température d'environ 6°, en cuve.
 À la fin la vendange est débourbée.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>But</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique est réalisée pour une recherche de finesse et d'intensité aromatique.
 </t>
